--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1401543.30934291</v>
+        <v>-1403493.535171471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>450225.4493438609</v>
+        <v>141974.722398204</v>
       </c>
     </row>
     <row r="8">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>16.08931327141812</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>298.2146264568731</v>
       </c>
       <c r="X2" t="n">
-        <v>147.7249902362043</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.764863467406773</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.2254923650022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>105.9616620475108</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>295.437700995755</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>28.27910107855478</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>110.5201371783735</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>330.6344687135546</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>177.2037132681414</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>72.27173600468102</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.17579562641288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>161.1578965188287</v>
       </c>
       <c r="T13" t="n">
-        <v>188.4590648403943</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274024</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.8295759545805836</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>85.58904098595204</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>58.63118041285056</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>181.8217398873213</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>152.6276470398217</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>9.172584678769772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>66.72138140279276</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.7152661164608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329113</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373747</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.301239238533</v>
+        <v>1034.358350861827</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.301239238533</v>
+        <v>1034.358350861827</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1811.09752290176</v>
       </c>
       <c r="X2" t="n">
-        <v>1731.901079302655</v>
+        <v>1811.09752290176</v>
       </c>
       <c r="Y2" t="n">
-        <v>1731.901079302655</v>
+        <v>1420.958190925948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4437,19 +4437,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.8103050498663</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.15289212512</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.190375184708</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>989.9246765779576</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>989.9246765779576</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>578.9387717883501</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>160.974963686537</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>160.974963686537</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.15289212512</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.15289212512</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>551.4175770764215</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>551.4175770764215</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>551.4175770764215</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.4175770764215</v>
+        <v>361.80799380017</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.309493689272</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C8" t="n">
-        <v>959.3469767488602</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D8" t="n">
-        <v>959.3469767488602</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="E8" t="n">
-        <v>959.3469767488602</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>804.3664156928874</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>386.4026075910742</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990285</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.048665729205</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1714.909333753394</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>477.5636529541582</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025302</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5042,16 +5042,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>506.3718661188911</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>1120.26893587578</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.604255405482</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N12" t="n">
-        <v>1785.124911043099</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O12" t="n">
-        <v>2033.878325127062</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1336.130516498479</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.553578799928</v>
+        <v>1336.130516498479</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.424940013486</v>
+        <v>1047.001877712038</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>1047.001877712038</v>
       </c>
       <c r="W13" t="n">
-        <v>475.3232817706389</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="14">
@@ -5258,31 +5258,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,19 +5294,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>618.8589595388348</v>
       </c>
       <c r="M15" t="n">
-        <v>1031.449480746876</v>
+        <v>1387.227105931296</v>
       </c>
       <c r="N15" t="n">
-        <v>1375.970136384494</v>
+        <v>1731.747761568914</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1980.501175652876</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1954542207687</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>244.9449944678736</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1301.387590366241</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1077.602175155747</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1077.602175155747</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1077.602175155747</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>788.1850051187861</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X16" t="n">
-        <v>560.1954542207687</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.1954542207687</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5507,7 +5507,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>508.1073603047985</v>
+        <v>1221.581209098491</v>
       </c>
       <c r="M18" t="n">
-        <v>1214.889396603097</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>622.94692973335</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>622.94692973335</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>563.7235151749151</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
         <v>247.6350999123426</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1115.337937354948</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.156678913841</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="W19" t="n">
-        <v>843.7395088768801</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="X19" t="n">
-        <v>843.7395088768801</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y19" t="n">
-        <v>622.94692973335</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,22 +5735,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1570.408513028025</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N21" t="n">
-        <v>2374.820091292176</v>
+        <v>1862.817363967</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1265.865618298146</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1011.181130092259</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>1011.181130092259</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X22" t="n">
-        <v>783.1915791942415</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.3990000507114</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5972,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6032,7 +6032,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>263.5382936126482</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1031.90644000511</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2234.890320719211</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525.6009593486384</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C25" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>356.6647764207315</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.055751909234</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W25" t="n">
-        <v>874.6385818722729</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X25" t="n">
-        <v>707.2494241788781</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y25" t="n">
-        <v>707.2494241788781</v>
+        <v>481.4617027208816</v>
       </c>
     </row>
     <row r="26">
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899877</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6361,34 +6361,34 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E28" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>898.5014152359092</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6598,19 +6598,19 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,34 +6716,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O33" t="n">
         <v>1797.533454227377</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6968,13 +6968,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M36" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605669</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M42" t="n">
-        <v>1954.109744073479</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1899.959921985247</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N45" t="n">
-        <v>2328.464088060424</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.464088060424</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525394</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,13 +9957,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>405.8571761781952</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>266.0944769035157</v>
+        <v>338.5937283492648</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>222.0061104422648</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>36.76291346477453</v>
       </c>
       <c r="T13" t="n">
-        <v>33.08849621799493</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.7858970636318</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>112.3317689976512</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>89.98429260536179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>39.72582117106796</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>27.20433314211556</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.0647677198075</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>113.1105987791445</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>59.99438927257637</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1258823.514490222</v>
+        <v>1258823.514490221</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770929</v>
+        <v>96832.57803770932</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,22 +26320,22 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442725</v>
+        <v>97757.26493442724</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442725</v>
+        <v>97757.26493442722</v>
       </c>
       <c r="G2" t="n">
+        <v>97757.26493442722</v>
+      </c>
+      <c r="H2" t="n">
         <v>97757.26493442721</v>
       </c>
-      <c r="H2" t="n">
-        <v>97757.26493442722</v>
-      </c>
       <c r="I2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330356</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112586.3083663467</v>
+        <v>112586.3083663466</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26427,37 +26427,37 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758945</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758888</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758849</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758901</v>
-      </c>
       <c r="J4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189629</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26491,19 +26491,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688580.6876065913</v>
+        <v>-688696.6404704978</v>
       </c>
       <c r="C6" t="n">
         <v>-119287.9960109931</v>
@@ -26528,40 +26528,40 @@
         <v>-119287.9960109931</v>
       </c>
       <c r="E6" t="n">
-        <v>-520177.8911817613</v>
+        <v>-520275.3503077336</v>
       </c>
       <c r="F6" t="n">
-        <v>4982.145295134731</v>
+        <v>4884.686169162566</v>
       </c>
       <c r="G6" t="n">
-        <v>4982.145295134702</v>
+        <v>4884.686169162567</v>
       </c>
       <c r="H6" t="n">
-        <v>4982.145295134687</v>
+        <v>4884.686169162494</v>
       </c>
       <c r="I6" t="n">
-        <v>4982.145295134716</v>
+        <v>4884.686169162537</v>
       </c>
       <c r="J6" t="n">
         <v>-249220.1968151917</v>
       </c>
       <c r="K6" t="n">
-        <v>-18291.46551888619</v>
+        <v>-18291.46551888615</v>
       </c>
       <c r="L6" t="n">
-        <v>-18291.46551888619</v>
+        <v>-18291.46551888618</v>
       </c>
       <c r="M6" t="n">
         <v>-153092.4807527233</v>
       </c>
       <c r="N6" t="n">
-        <v>-18291.46551888617</v>
+        <v>-18291.46551888619</v>
       </c>
       <c r="O6" t="n">
-        <v>-72796.97762259869</v>
+        <v>-72796.97762259867</v>
       </c>
       <c r="P6" t="n">
-        <v>-18291.46551888619</v>
+        <v>-18291.46551888615</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26762,7 +26762,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>88.58856471716729</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>51.02634226053993</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>215.2702419906775</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.35916098709259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>45.96965419735047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>53.80326772165802</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,10 +27828,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>258.0027731634229</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>108.0645161737212</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>76.24157702815688</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>146.7190594962157</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>152.7633694534032</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>174.4088577256819</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5.542233338928781e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,19 +31364,19 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>195.5988322391985</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392718</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,28 +31841,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>118.6626388367733</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>239.0406646198479</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,43 +32069,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>185.2928442992127</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>156.2519421180777</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32254,7 +32254,7 @@
         <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
@@ -32312,16 +32312,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>320.3934755282636</v>
       </c>
       <c r="M18" t="n">
-        <v>390.3502189581785</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32330,13 +32330,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32555,25 +32555,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>129.3623873097339</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>23.85840434223314</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32798,16 +32798,16 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>184.831269290896</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>127.2880165989363</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32944,10 +32944,10 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
@@ -33029,16 +33029,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>340.85460907735</v>
+        <v>69.99770963007967</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,7 +33047,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>282.4671269667419</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,13 +33506,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>435.7437450400229</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458549</v>
@@ -33740,16 +33740,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>47.93166030412425</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,7 +33758,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33974,22 +33974,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>268.1222443746797</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34208,22 +34208,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>348.9381740704318</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>214.3354758413622</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34232,7 +34232,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>220.9982683546634</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>543.5994944994187</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2864368749929</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>562.6116944478294</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>436.5589191314978</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>340.7403033436847</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349808</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>552.6794410518486</v>
       </c>
       <c r="M18" t="n">
-        <v>713.92124878616</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -35978,13 +35978,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>452.9334171377155</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>275.1244791745182</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>532.8319315511162</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>311.7763778245432</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36677,16 +36677,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>592.1206839096351</v>
+        <v>321.2637844623648</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>514.7530924903269</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>759.3147748680045</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>239.4656922197789</v>
+        <v>371.5026901321058</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37406,7 +37406,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>616.1229066348999</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>672.5092038984134</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>465.6015506736472</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>274.515464094862</v>
+        <v>568.9989306148836</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
